--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenewMediaTemp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenewMediaTemp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017034B4-FB97-4D26-8DF6-FBB17BE369A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -534,11 +535,15 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>FireInsuMonth ASC , CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -841,6 +846,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -852,15 +860,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -951,6 +956,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -986,6 +1008,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1161,11 +1200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1180,10 +1219,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
         <v>142</v>
       </c>
@@ -1195,8 +1234,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="8" t="s">
         <v>109</v>
       </c>
@@ -1208,10 +1247,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="20" t="s">
         <v>130</v>
       </c>
@@ -1223,10 +1262,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1234,10 +1273,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1245,10 +1284,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1256,10 +1295,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1267,10 +1306,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3"/>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1278,10 +1317,10 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3"/>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
@@ -2232,7 +2271,7 @@
       <c r="E62" s="23">
         <v>1</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="33" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2343,12 +2382,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2377,6 +2416,9 @@
       <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenewMediaTemp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuRenewMediaTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017034B4-FB97-4D26-8DF6-FBB17BE369A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0D016C-9DD1-4512-B304-5E5CDCCE6A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="21840" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FireInsuMonth ASC , CustNo ASC</t>
+    <t>FireInsuMonth ASC , CustNo ASC, Seq ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
